--- a/Input/Orient_basic/benefits1.xlsx
+++ b/Input/Orient_basic/benefits1.xlsx
@@ -270,7 +270,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -297,11 +297,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,7 +341,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,10 +366,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,11 +385,11 @@
   </sheetPr>
   <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AV2" activeCellId="0" sqref="AV2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="65.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="11.52"/>
@@ -562,7 +553,7 @@
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="199" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -691,7 +682,7 @@
       <c r="AV2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AX2" s="4" t="s">
